--- a/parameters/ModelG_Tocilizumab_Params_Charoin10.xlsx
+++ b/parameters/ModelG_Tocilizumab_Params_Charoin10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/git/TMDD_EndogenousLigand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BFABF7-B6DD-1943-865D-1D6D93ED3883}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2263757-FD09-A94A-9FFF-2F55991C5E2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="1280" windowWidth="24620" windowHeight="18380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2960" yWindow="1300" windowWidth="24620" windowHeight="18380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="Dose">#REF!</definedName>
     <definedName name="eps">#REF!</definedName>
     <definedName name="F">Sheet2!$F$2</definedName>
-    <definedName name="Imax">Sheet2!$F$21</definedName>
+    <definedName name="Imax">Sheet2!$F$20</definedName>
     <definedName name="k12_">Sheet2!$F$9</definedName>
     <definedName name="k12D">#REF!</definedName>
     <definedName name="k13D">#REF!</definedName>
@@ -41,42 +41,42 @@
     <definedName name="k31M">#REF!</definedName>
     <definedName name="ka">Sheet2!$F$3</definedName>
     <definedName name="Kd">#REF!</definedName>
-    <definedName name="Kd_DT">Sheet2!$F$27</definedName>
-    <definedName name="Kd_TL">Sheet2!$F$34</definedName>
-    <definedName name="Kd_ugml">Sheet2!$F$26</definedName>
+    <definedName name="Kd_DT">Sheet2!$F$26</definedName>
+    <definedName name="Kd_TL">Sheet2!$F$33</definedName>
+    <definedName name="Kd_ugml">Sheet2!$F$25</definedName>
     <definedName name="keD">Sheet2!$F$8</definedName>
     <definedName name="keD3_">#REF!</definedName>
     <definedName name="keDM3">#REF!</definedName>
     <definedName name="keDMtot">#REF!</definedName>
     <definedName name="keDS1">#REF!</definedName>
-    <definedName name="keDT">Sheet2!$F$22</definedName>
-    <definedName name="keL">Sheet2!$F$32</definedName>
+    <definedName name="keDT">Sheet2!$F$21</definedName>
+    <definedName name="keL">Sheet2!$F$31</definedName>
     <definedName name="keM">#REF!</definedName>
     <definedName name="keM3_">#REF!</definedName>
-    <definedName name="keT">Sheet2!$F$20</definedName>
-    <definedName name="keTL">Sheet2!$F$33</definedName>
+    <definedName name="keT">Sheet2!$F$19</definedName>
+    <definedName name="keTL">Sheet2!$F$32</definedName>
     <definedName name="keTs">#REF!</definedName>
     <definedName name="Km">Sheet2!$F$14</definedName>
     <definedName name="Km_ugml">Sheet2!$F$12</definedName>
     <definedName name="koff">#REF!</definedName>
-    <definedName name="koff_DT">Sheet2!$F$29</definedName>
-    <definedName name="koff_TL">Sheet2!$F$36</definedName>
+    <definedName name="koff_DT">Sheet2!$F$28</definedName>
+    <definedName name="koff_TL">Sheet2!$F$35</definedName>
     <definedName name="kon">#REF!</definedName>
-    <definedName name="kon_DT">Sheet2!$F$30</definedName>
-    <definedName name="kon_TL">Sheet2!$F$37</definedName>
+    <definedName name="kon_DT">Sheet2!$F$29</definedName>
+    <definedName name="kon_TL">Sheet2!$F$36</definedName>
     <definedName name="kshed">#REF!</definedName>
     <definedName name="kshedDM1">#REF!</definedName>
     <definedName name="kshedDM3">#REF!</definedName>
     <definedName name="kshedM1">#REF!</definedName>
     <definedName name="kshedM3">#REF!</definedName>
-    <definedName name="Kss_DT">Sheet2!$F$28</definedName>
-    <definedName name="Kss_TL">Sheet2!$F$35</definedName>
-    <definedName name="ksyn_ngml">Sheet2!$F$18</definedName>
-    <definedName name="ksynL">Sheet2!$F$31</definedName>
-    <definedName name="ksynT">Sheet2!$F$19</definedName>
+    <definedName name="Kss_DT">Sheet2!$F$27</definedName>
+    <definedName name="Kss_TL">Sheet2!$F$34</definedName>
+    <definedName name="ksyn_ngml">Sheet2!#REF!</definedName>
+    <definedName name="ksynL">Sheet2!$F$30</definedName>
+    <definedName name="ksynT">Sheet2!$F$18</definedName>
     <definedName name="ksynTs">#REF!</definedName>
     <definedName name="ksynTs_ngml">#REF!</definedName>
-    <definedName name="L0">Sheet2!$F$25</definedName>
+    <definedName name="L0">Sheet2!$F$24</definedName>
     <definedName name="M10_">#REF!</definedName>
     <definedName name="M30_">#REF!</definedName>
     <definedName name="Mfrac">#REF!</definedName>
@@ -99,10 +99,10 @@
     <definedName name="Rkrogh">#REF!</definedName>
     <definedName name="S10_">#REF!</definedName>
     <definedName name="S1acc">#REF!</definedName>
-    <definedName name="T0">Sheet2!$F$23</definedName>
+    <definedName name="T0">Sheet2!$F$22</definedName>
     <definedName name="Tau">#REF!</definedName>
     <definedName name="Tfrac">#REF!</definedName>
-    <definedName name="TL0">Sheet2!$F$24</definedName>
+    <definedName name="TL0">Sheet2!$F$23</definedName>
     <definedName name="V1_">Sheet2!$F$5</definedName>
     <definedName name="V2_">Sheet2!$F$7</definedName>
     <definedName name="Vc">#REF!</definedName>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="102">
   <si>
     <t>Parameter</t>
   </si>
@@ -282,9 +282,6 @@
     <t>Elimination Rate</t>
   </si>
   <si>
-    <t>ksyn_ngml</t>
-  </si>
-  <si>
     <t>Gibiansky12 - Table 2 doi 10.1007/s10928-011-9227-z</t>
   </si>
   <si>
@@ -399,9 +396,6 @@
     <t>Soluble Ligand (IL-6)</t>
   </si>
   <si>
-    <t>ng/ml/d</t>
-  </si>
-  <si>
     <t>ug/ml/d</t>
   </si>
   <si>
@@ -438,7 +432,19 @@
     <t>Membrane Target (IL6-R)</t>
   </si>
   <si>
-    <t>Charoin10 - presentation - fit to data</t>
+    <t>Fujimoto15 - http://dx.doi.org/10.1124/mol.115.099184 - 2.8 h half-life.</t>
+  </si>
+  <si>
+    <t>Fujimoto15 - http://dx.doi.org/10.1124/mol.115.099184 - 2 h half-life.</t>
+  </si>
+  <si>
+    <t>Assume same as keT</t>
+  </si>
+  <si>
+    <t>Charoin10 - presentation - fit to data - Target mediated drug disposition (tmdd) in rheumatoidarthritis, a case study using tocilizumab.” Presenetd at the 6th International Symposium on Measurement andKinetics of in Vivo Drug Effects in Noordwijkerhout, The Netherlands, 2010</t>
+  </si>
+  <si>
+    <t>Charoin10 - presentation - fit to data - Target mediated drug disposition (tmdd) in rheumatoidarthritis, a case study using tocilizumab.” Presenetd at the 6th International Symposium on Measurement andKinetics of in Vivo Drug Effects in Noordwijkerhout, T</t>
   </si>
 </sst>
 </file>
@@ -1046,16 +1052,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="20.83203125" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="31" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.5" style="1" customWidth="1"/>
@@ -1104,13 +1111,13 @@
         <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="6">
         <v>0</v>
@@ -1119,7 +1126,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I2" s="7" t="str">
         <f ca="1">_xlfn.IFNA(_xlfn.FORMULATEXT(F2),"")</f>
@@ -1138,13 +1145,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -1153,10 +1160,10 @@
         <v>4</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" s="7" t="str">
-        <f t="shared" ref="I3:I37" ca="1" si="0">_xlfn.IFNA(_xlfn.FORMULATEXT(F3),"")</f>
+        <f t="shared" ref="I3:I36" ca="1" si="0">_xlfn.IFNA(_xlfn.FORMULATEXT(F3),"")</f>
         <v/>
       </c>
       <c r="J3" s="7"/>
@@ -1172,7 +1179,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>20</v>
@@ -1208,7 +1215,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>22</v>
@@ -1244,7 +1251,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>21</v>
@@ -1280,7 +1287,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>23</v>
@@ -1316,7 +1323,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>46</v>
@@ -1351,7 +1358,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>24</v>
@@ -1386,7 +1393,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>26</v>
@@ -1421,19 +1428,19 @@
         <v>14</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="6">
         <v>1.41</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>17</v>
@@ -1458,13 +1465,13 @@
         <v>14</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" s="15">
         <v>0.36699999999999999</v>
@@ -1494,17 +1501,16 @@
         <v>14</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="15">
-        <f>Vm_ugml*1000/MWD</f>
-        <v>9.5270270270270263</v>
+        <v>0</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>7</v>
@@ -1514,7 +1520,7 @@
       </c>
       <c r="I13" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=Vm_ugml*1000/MWD</v>
+        <v/>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="8"/>
@@ -1529,17 +1535,16 @@
         <v>14</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="15">
-        <f>Km_ugml*1000/MWD</f>
-        <v>2.4797297297297298</v>
+        <v>1</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>15</v>
@@ -1549,7 +1554,7 @@
       </c>
       <c r="I14" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=Km_ugml*1000/MWD</v>
+        <v/>
       </c>
       <c r="J14" s="7"/>
       <c r="K14" s="8"/>
@@ -1564,7 +1569,7 @@
         <v>34</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>28</v>
@@ -1586,7 +1591,7 @@
         <v/>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
@@ -1600,13 +1605,13 @@
         <v>34</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="6">
         <v>52</v>
@@ -1622,7 +1627,7 @@
         <v/>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -1636,13 +1641,13 @@
         <v>34</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="6">
         <v>21</v>
@@ -1658,33 +1663,33 @@
         <v/>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K17" s="8"/>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
     </row>
-    <row r="18" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>59</v>
+        <v>18</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="6">
-        <v>47.8</v>
+        <v>63</v>
+      </c>
+      <c r="F18" s="15">
+        <v>8</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="H18" s="17" t="s">
         <v>17</v>
@@ -1694,113 +1699,117 @@
         <v/>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
-      <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F19" s="15">
-        <f>ksyn_ngml/MWT</f>
-        <v>0.91923076923076918</v>
+        <f>LN(2)/(2.8/24)</f>
+        <v>5.9412615476566746</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I19" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=ksyn_ngml/MWT</v>
-      </c>
-      <c r="J19" s="7"/>
+        <v>=LN(2)/(2.8/24)</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="K19" s="8"/>
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="6">
-        <v>6</v>
+        <v>41</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0.93899999999999995</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I20" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J20" s="7"/>
+      <c r="J20" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="F21" s="15">
-        <v>0.93899999999999995</v>
+        <f>keT</f>
+        <v>5.9412615476566746</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I21" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>=keT</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
@@ -1808,32 +1817,33 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>65</v>
       </c>
       <c r="F22" s="15">
-        <v>6</v>
+        <f>(ksynT-keTL*TL0)/keT</f>
+        <v>1.3444153714963658</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="H22" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I22" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>=(ksynT-keTL*TL0)/keT</v>
       </c>
       <c r="J22" s="7"/>
       <c r="K22" s="8"/>
@@ -1842,70 +1852,71 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="15">
-        <f>(ksynT-keTL*TL0)/keT</f>
-        <v>0.15187179487179486</v>
+        <v>94</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1.5E-3</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I23" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=(ksynT-keTL*TL0)/keT</v>
-      </c>
-      <c r="J23" s="7"/>
+        <v/>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8"/>
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>95</v>
+        <v>24</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="F24" s="6">
-        <v>2.0000000000000001E-4</v>
+        <v>1.5E-3</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I24" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J24" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
@@ -1913,25 +1924,25 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>85</v>
+        <v>25</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F25" s="6">
-        <v>1.5E-3</v>
+        <v>0.182</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="H25" s="17" t="s">
         <v>17</v>
@@ -1940,8 +1951,8 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J25" s="18" t="s">
-        <v>74</v>
+      <c r="J25" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
@@ -1949,13 +1960,13 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>27</v>
@@ -1964,44 +1975,43 @@
         <v>50</v>
       </c>
       <c r="F26" s="6">
-        <v>0.182</v>
+        <f>Kd_ugml*1000/MWT</f>
+        <v>3.5</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I26" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>48</v>
-      </c>
+        <v>=Kd_ugml*1000/MWT</v>
+      </c>
+      <c r="J26" s="7"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F27" s="6">
-        <f>Kd_ugml*1000/MWT</f>
-        <v>3.5</v>
+        <v>90</v>
+      </c>
+      <c r="F27" s="15">
+        <f>(koff_DT+keDT)/kon_DT</f>
+        <v>7.6588830833596724</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>15</v>
@@ -2011,7 +2021,7 @@
       </c>
       <c r="I27" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=Kd_ugml*1000/MWT</v>
+        <v>=(koff_DT+keDT)/kon_DT</v>
       </c>
       <c r="J27" s="7"/>
       <c r="K27" s="8"/>
@@ -2020,157 +2030,158 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="15">
-        <f>(koff_DT+keDT)/kon_DT</f>
-        <v>7.7</v>
+        <v>51</v>
+      </c>
+      <c r="F28" s="6">
+        <v>5</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I28" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=(koff_DT+keDT)/kon_DT</v>
-      </c>
-      <c r="J28" s="7"/>
+        <v/>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="6">
-        <v>5</v>
+        <v>53</v>
+      </c>
+      <c r="F29" s="15">
+        <f>koff_DT/Kd_DT</f>
+        <v>1.4285714285714286</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I29" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>53</v>
-      </c>
+        <v>=koff_DT/Kd_DT</v>
+      </c>
+      <c r="J29" s="7"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="15">
-        <f>koff_DT/Kd_DT</f>
-        <v>1.4285714285714286</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="19">
+        <f>L0*(kon_TL*T0+keL)-koff_TL*TL0</f>
+        <v>4.0831152862227434E-3</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>7</v>
       </c>
       <c r="H30" s="17" t="s">
         <v>16</v>
       </c>
       <c r="I30" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=koff_DT/Kd_DT</v>
-      </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-    </row>
-    <row r="31" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>=L0*(kon_TL*T0+keL)-koff_TL*TL0</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="12"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
-        <v>30</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="19">
-        <f>L0*(kon_TL*T0+keL)-koff_TL*TL0</f>
-        <v>4.3903846153846141E-4</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="6">
+        <v>1</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I31" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=L0*(kon_TL*T0+keL)-koff_TL*TL0</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="12"/>
+        <v/>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>46</v>
@@ -2178,21 +2189,22 @@
       <c r="E32" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="6">
-        <v>0.2</v>
+      <c r="F32" s="16">
+        <f>LN(2)/(2/24)</f>
+        <v>8.3177661667193448</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>4</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I32" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
+        <v>=LN(2)/(2/24)</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
@@ -2200,35 +2212,35 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F33" s="6">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="I33" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J33" s="7" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
@@ -2236,153 +2248,117 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="F34" s="6">
-        <v>1</v>
+        <f>(koff_TL+keTL)/kon_TL</f>
+        <v>2.663553233343869</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I34" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>75</v>
-      </c>
+        <v>=(koff_TL+keTL)/kon_TL</v>
+      </c>
+      <c r="J34" s="7"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="F35" s="6">
-        <f>(koff_TL+keTL)/kon_TL</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I35" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>=(koff_TL+keTL)/kon_TL</v>
-      </c>
-      <c r="J35" s="7"/>
+        <v/>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>71</v>
       </c>
       <c r="F36" s="6">
+        <f>koff_TL/Kd_TL</f>
         <v>5</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I36" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>53</v>
-      </c>
+        <v>=koff_TL/Kd_TL</v>
+      </c>
+      <c r="J36" s="7"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" s="6">
-        <f>koff_TL/Kd_TL</f>
-        <v>5</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>=koff_TL/Kd_TL</v>
-      </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H37">
+  <conditionalFormatting sqref="H2:H36">
     <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="calc">
       <formula>NOT(ISERROR(SEARCH("calc",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H37">
+  <conditionalFormatting sqref="H2:H36">
     <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="literature">
       <formula>NOT(ISERROR(SEARCH("literature",H2)))</formula>
     </cfRule>
@@ -2390,7 +2366,7 @@
       <formula>NOT(ISERROR(SEARCH("guess",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H37">
+  <conditionalFormatting sqref="H2:H36">
     <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="not used">
       <formula>NOT(ISERROR(SEARCH("not used",H2)))</formula>
     </cfRule>
@@ -2407,7 +2383,7 @@
       <formula>NOT(ISERROR(SEARCH("check",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H37">
+  <conditionalFormatting sqref="H2:H36">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="internal data">
       <formula>NOT(ISERROR(SEARCH("internal data",H2)))</formula>
     </cfRule>

--- a/parameters/ModelG_Tocilizumab_Params_Charoin10.xlsx
+++ b/parameters/ModelG_Tocilizumab_Params_Charoin10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steinanf/git/TMDD_EndogenousLigand/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2263757-FD09-A94A-9FFF-2F55991C5E2A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{380EC9FF-EE3D-1F48-B8BD-A850FE0B271C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="1300" windowWidth="24620" windowHeight="18380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="24620" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1054,7 +1054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
